--- a/WGRDBESstockCoord/format/CEF/old_versions/RCEF_v14_suggestions/RCEF_tv14.8_cases_example.xlsx
+++ b/WGRDBESstockCoord/format/CEF/old_versions/RCEF_v14_suggestions/RCEF_tv14.8_cases_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/RDBES_gits/RDBESstockCoord/WGRDBESstockCoord/format/CEF/old_versions/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{EB1F39A7-EDF1-450F-9B07-FE4E6A058452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632466FB-C1A0-4EAD-AD9E-3BD8AA90156B}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{EB1F39A7-EDF1-450F-9B07-FE4E6A058452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FD227C-5398-49E4-AEEC-B0C325D6432C}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,7 +2226,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}" name="Table3" displayName="Table3" ref="A9:Y66" totalsRowShown="0" dataDxfId="106">
-  <autoFilter ref="A9:Y66" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}"/>
+  <autoFilter ref="A9:Y66" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1.1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:Y53">
     <sortCondition ref="G9:G53"/>
   </sortState>
@@ -2831,7 +2837,7 @@
   </sheetPr>
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W9" sqref="W9:X9"/>
     </sheetView>
   </sheetViews>
@@ -4664,7 +4670,7 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.2</v>
       </c>
@@ -4733,7 +4739,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1.2</v>
       </c>
@@ -4802,7 +4808,7 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -4871,7 +4877,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>1.2</v>
       </c>
@@ -4934,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.2</v>
       </c>
@@ -4997,7 +5003,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.2</v>
       </c>
@@ -5060,7 +5066,7 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.2</v>
       </c>
@@ -5123,7 +5129,7 @@
       <c r="Z45"/>
       <c r="AA45"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.2</v>
       </c>
@@ -5186,7 +5192,7 @@
       <c r="Z46"/>
       <c r="AA46"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.2</v>
       </c>
@@ -5249,7 +5255,7 @@
       <c r="Z47"/>
       <c r="AA47"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.2</v>
       </c>
@@ -5312,7 +5318,7 @@
       <c r="Z48"/>
       <c r="AA48"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.2</v>
       </c>
@@ -5375,7 +5381,7 @@
       <c r="Z49"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.2</v>
       </c>
@@ -5438,7 +5444,7 @@
       <c r="Z50"/>
       <c r="AA50"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.2</v>
       </c>
@@ -5501,7 +5507,7 @@
       <c r="Z51"/>
       <c r="AA51"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.2</v>
       </c>
@@ -5564,7 +5570,7 @@
       <c r="Z52"/>
       <c r="AA52"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.2</v>
       </c>
@@ -5627,7 +5633,7 @@
       <c r="Z53"/>
       <c r="AA53"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.2</v>
       </c>
@@ -5690,7 +5696,7 @@
       <c r="Z54"/>
       <c r="AA54"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.2</v>
       </c>
@@ -5753,7 +5759,7 @@
       <c r="Z55"/>
       <c r="AA55"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.2</v>
       </c>
@@ -5816,7 +5822,7 @@
       <c r="Z56"/>
       <c r="AA56"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.2</v>
       </c>
@@ -5879,7 +5885,7 @@
       <c r="Z57"/>
       <c r="AA57"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.2</v>
       </c>
@@ -5942,7 +5948,7 @@
       <c r="Z58"/>
       <c r="AA58"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.2</v>
       </c>
@@ -6005,7 +6011,7 @@
       <c r="Z59"/>
       <c r="AA59"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.2</v>
       </c>
@@ -6068,7 +6074,7 @@
       <c r="Z60"/>
       <c r="AA60"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.2</v>
       </c>
@@ -6131,7 +6137,7 @@
       <c r="Z61"/>
       <c r="AA61"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.2</v>
       </c>
@@ -6194,7 +6200,7 @@
       <c r="Z62"/>
       <c r="AA62"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.2</v>
       </c>
@@ -6257,7 +6263,7 @@
       <c r="Z63"/>
       <c r="AA63"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.2</v>
       </c>
@@ -6320,7 +6326,7 @@
       <c r="Z64"/>
       <c r="AA64"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1.2</v>
       </c>
@@ -6383,7 +6389,7 @@
       <c r="Z65"/>
       <c r="AA65"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.2</v>
       </c>
@@ -13701,27 +13707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -13898,10 +13883,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13924,20 +13941,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>